--- a/biology/Botanique/Phalaenopsis_lindenii/Phalaenopsis_lindenii.xlsx
+++ b/biology/Botanique/Phalaenopsis_lindenii/Phalaenopsis_lindenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaenopsis lindenii est une espèce d'orchidée du genre Phalaenopsis. Elle est endémique de l'île de Luçon aux Philippines. L'espèce est menacée par la destruction de son habitat.
 L'orchidée est nommée en hommage au botaniste belge Jean Jules Linden, spécialiste des orchidées.
